--- a/Team-Data/2012-13/12-9-2012-13.xlsx
+++ b/Team-Data/2012-13/12-9-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -765,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
@@ -774,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
         <v>29</v>
@@ -798,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="AV2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW2" t="n">
         <v>3</v>
@@ -816,10 +883,10 @@
         <v>13</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -926,10 +993,10 @@
         <v>0.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="n">
         <v>11</v>
@@ -956,13 +1023,13 @@
         <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
         <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ3" t="n">
         <v>4</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -983,16 +1050,16 @@
         <v>10</v>
       </c>
       <c r="AW3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>20</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
         <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>0.579</v>
+        <v>0.611</v>
       </c>
       <c r="H4" t="n">
         <v>48.3</v>
       </c>
       <c r="I4" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="J4" t="n">
-        <v>81.5</v>
+        <v>81.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.439</v>
+        <v>0.441</v>
       </c>
       <c r="L4" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M4" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.338</v>
+        <v>0.341</v>
       </c>
       <c r="O4" t="n">
         <v>16.8</v>
@@ -1069,67 +1136,67 @@
         <v>23.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.727</v>
+        <v>0.726</v>
       </c>
       <c r="R4" t="n">
         <v>13.1</v>
       </c>
       <c r="S4" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="T4" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U4" t="n">
         <v>21.7</v>
       </c>
       <c r="V4" t="n">
-        <v>14.1</v>
+        <v>13.6</v>
       </c>
       <c r="W4" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X4" t="n">
         <v>5.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="Z4" t="n">
         <v>18.7</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ4" t="n">
         <v>20</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
         <v>10</v>
@@ -1150,22 +1217,22 @@
         <v>26</v>
       </c>
       <c r="AR4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU4" t="n">
         <v>15</v>
       </c>
       <c r="AV4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX4" t="n">
         <v>17</v>
@@ -1180,10 +1247,10 @@
         <v>3</v>
       </c>
       <c r="BB4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>-7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
         <v>4</v>
@@ -1326,19 +1393,19 @@
         <v>7</v>
       </c>
       <c r="AP5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ5" t="n">
         <v>13</v>
       </c>
       <c r="AR5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AS5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU5" t="n">
         <v>28</v>
@@ -1347,7 +1414,7 @@
         <v>8</v>
       </c>
       <c r="AW5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX5" t="n">
         <v>5</v>
@@ -1362,7 +1429,7 @@
         <v>11</v>
       </c>
       <c r="BB5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC5" t="n">
         <v>29</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -1472,22 +1539,22 @@
         <v>2.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF6" t="n">
         <v>10</v>
       </c>
-      <c r="AF6" t="n">
-        <v>9</v>
-      </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI6" t="n">
         <v>22</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>23</v>
@@ -1508,7 +1575,7 @@
         <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ6" t="n">
         <v>2</v>
@@ -1523,13 +1590,13 @@
         <v>7</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX6" t="n">
         <v>13</v>
@@ -1547,7 +1614,7 @@
         <v>24</v>
       </c>
       <c r="BC6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>-6.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
       </c>
       <c r="AF7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG7" t="n">
         <v>29</v>
       </c>
-      <c r="AG7" t="n">
-        <v>28</v>
-      </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>24</v>
@@ -1678,16 +1745,16 @@
         <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
         <v>6</v>
       </c>
       <c r="AN7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO7" t="n">
         <v>21</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>22</v>
       </c>
       <c r="AP7" t="n">
         <v>20</v>
@@ -1711,7 +1778,7 @@
         <v>26</v>
       </c>
       <c r="AW7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1723,7 +1790,7 @@
         <v>24</v>
       </c>
       <c r="BA7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB7" t="n">
         <v>22</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>14</v>
@@ -1845,7 +1912,7 @@
         <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
         <v>15</v>
@@ -1857,7 +1924,7 @@
         <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
@@ -1866,13 +1933,13 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
         <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>9</v>
@@ -1905,7 +1972,7 @@
         <v>27</v>
       </c>
       <c r="BA8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB8" t="n">
         <v>11</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>0.476</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1958,85 +2025,85 @@
         <v>38.9</v>
       </c>
       <c r="J9" t="n">
-        <v>84.40000000000001</v>
+        <v>85</v>
       </c>
       <c r="K9" t="n">
-        <v>0.461</v>
+        <v>0.457</v>
       </c>
       <c r="L9" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M9" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.327</v>
+        <v>0.329</v>
       </c>
       <c r="O9" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="P9" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.68</v>
+        <v>0.678</v>
       </c>
       <c r="R9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="S9" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="T9" t="n">
-        <v>45.6</v>
+        <v>45.9</v>
       </c>
       <c r="U9" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="V9" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W9" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA9" t="n">
         <v>21.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
         <v>6</v>
@@ -2051,7 +2118,7 @@
         <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP9" t="n">
         <v>8</v>
@@ -2063,28 +2130,28 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU9" t="n">
         <v>11</v>
       </c>
-      <c r="AT9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>12</v>
-      </c>
       <c r="AV9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX9" t="n">
         <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA9" t="n">
         <v>6</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -2203,13 +2270,13 @@
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG10" t="n">
         <v>26</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>25</v>
       </c>
       <c r="AH10" t="n">
         <v>28</v>
@@ -2218,7 +2285,7 @@
         <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK10" t="n">
         <v>14</v>
@@ -2230,7 +2297,7 @@
         <v>28</v>
       </c>
       <c r="AN10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO10" t="n">
         <v>10</v>
@@ -2254,7 +2321,7 @@
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW10" t="n">
         <v>27</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>0.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
@@ -2397,7 +2464,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ11" t="n">
         <v>18</v>
@@ -2406,7 +2473,7 @@
         <v>9</v>
       </c>
       <c r="AL11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AM11" t="n">
         <v>15</v>
@@ -2415,7 +2482,7 @@
         <v>14</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>14</v>
@@ -2424,7 +2491,7 @@
         <v>14</v>
       </c>
       <c r="AR11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2445,7 +2512,7 @@
         <v>29</v>
       </c>
       <c r="AY11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>-0.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
         <v>15</v>
@@ -2579,7 +2646,7 @@
         <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ12" t="n">
         <v>4</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2603,7 +2670,7 @@
         <v>4</v>
       </c>
       <c r="AQ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR12" t="n">
         <v>9</v>
@@ -2615,7 +2682,7 @@
         <v>6</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2639,7 +2706,7 @@
         <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -2668,67 +2735,67 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>0.476</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I13" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="J13" t="n">
         <v>81.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.417</v>
+        <v>0.415</v>
       </c>
       <c r="L13" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M13" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="O13" t="n">
-        <v>16.3</v>
+        <v>16.6</v>
       </c>
       <c r="P13" t="n">
-        <v>22.3</v>
+        <v>22.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.733</v>
+        <v>0.73</v>
       </c>
       <c r="R13" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="S13" t="n">
-        <v>33.7</v>
+        <v>34.2</v>
       </c>
       <c r="T13" t="n">
-        <v>46.3</v>
+        <v>47</v>
       </c>
       <c r="U13" t="n">
-        <v>19.6</v>
+        <v>19.9</v>
       </c>
       <c r="V13" t="n">
-        <v>15.3</v>
+        <v>15.7</v>
       </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="X13" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Y13" t="n">
         <v>5</v>
@@ -2737,28 +2804,28 @@
         <v>19.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>14</v>
       </c>
       <c r="AF13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2773,22 +2840,22 @@
         <v>18</v>
       </c>
       <c r="AM13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN13" t="n">
         <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
         <v>23</v>
       </c>
       <c r="AR13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS13" t="n">
         <v>1</v>
@@ -2800,7 +2867,7 @@
         <v>26</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AW13" t="n">
         <v>28</v>
@@ -2815,13 +2882,13 @@
         <v>6</v>
       </c>
       <c r="BA13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB13" t="n">
         <v>30</v>
       </c>
       <c r="BC13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J14" t="n">
         <v>80.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.48</v>
+        <v>0.482</v>
       </c>
       <c r="L14" t="n">
         <v>6.9</v>
@@ -2880,31 +2947,31 @@
         <v>19.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="O14" t="n">
-        <v>17.9</v>
+        <v>17.6</v>
       </c>
       <c r="P14" t="n">
-        <v>24.2</v>
+        <v>23.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.741</v>
+        <v>0.744</v>
       </c>
       <c r="R14" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="S14" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T14" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="U14" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V14" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="W14" t="n">
         <v>11</v>
@@ -2913,10 +2980,10 @@
         <v>6.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="AA14" t="n">
         <v>21.2</v>
@@ -2925,13 +2992,13 @@
         <v>102.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
@@ -2940,10 +3007,10 @@
         <v>7</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ14" t="n">
         <v>22</v>
@@ -2955,34 +3022,34 @@
         <v>14</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
         <v>15</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT14" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AU14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3000,10 +3067,10 @@
         <v>8</v>
       </c>
       <c r="BB14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -3032,88 +3099,88 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>0.429</v>
+        <v>0.45</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J15" t="n">
-        <v>79.09999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L15" t="n">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.388</v>
+        <v>0.379</v>
       </c>
       <c r="O15" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="P15" t="n">
-        <v>30.3</v>
+        <v>31</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.678</v>
+        <v>0.674</v>
       </c>
       <c r="R15" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="S15" t="n">
-        <v>32.8</v>
+        <v>33.4</v>
       </c>
       <c r="T15" t="n">
-        <v>45.9</v>
+        <v>46.3</v>
       </c>
       <c r="U15" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="W15" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X15" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.8</v>
+        <v>101.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
         <v>20</v>
@@ -3125,22 +3192,22 @@
         <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="n">
         <v>3</v>
       </c>
       <c r="AM15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
@@ -3152,22 +3219,22 @@
         <v>30</v>
       </c>
       <c r="AR15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT15" t="n">
         <v>2</v>
       </c>
       <c r="AU15" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
         <v>29</v>
       </c>
       <c r="AW15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX15" t="n">
         <v>10</v>
@@ -3176,7 +3243,7 @@
         <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3185,7 +3252,7 @@
         <v>7</v>
       </c>
       <c r="BC15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>7</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF16" t="n">
         <v>1</v>
@@ -3307,7 +3374,7 @@
         <v>11</v>
       </c>
       <c r="AI16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
         <v>17</v>
@@ -3328,25 +3395,25 @@
         <v>6</v>
       </c>
       <c r="AP16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ16" t="n">
         <v>3</v>
       </c>
       <c r="AR16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT16" t="n">
         <v>12</v>
       </c>
       <c r="AU16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
@@ -3358,13 +3425,13 @@
         <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA16" t="n">
         <v>5</v>
       </c>
       <c r="BB16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC16" t="n">
         <v>5</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>3.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF17" t="n">
         <v>4</v>
@@ -3489,7 +3556,7 @@
         <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ17" t="n">
         <v>27</v>
@@ -3504,13 +3571,13 @@
         <v>12</v>
       </c>
       <c r="AN17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP17" t="n">
         <v>13</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>15</v>
@@ -3519,7 +3586,7 @@
         <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT17" t="n">
         <v>29</v>
@@ -3528,22 +3595,22 @@
         <v>4</v>
       </c>
       <c r="AV17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY17" t="n">
         <v>2</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
         <v>3</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -3578,73 +3645,73 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
         <v>9</v>
       </c>
       <c r="G18" t="n">
-        <v>0.526</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>37.8</v>
+        <v>38.1</v>
       </c>
       <c r="J18" t="n">
-        <v>85.8</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L18" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M18" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.323</v>
+        <v>0.318</v>
       </c>
       <c r="O18" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="P18" t="n">
-        <v>20.5</v>
+        <v>19.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.761</v>
+        <v>0.758</v>
       </c>
       <c r="R18" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="S18" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="T18" t="n">
-        <v>41.9</v>
+        <v>42.4</v>
       </c>
       <c r="U18" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V18" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="W18" t="n">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X18" t="n">
         <v>7.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA18" t="n">
         <v>19.3</v>
@@ -3653,13 +3720,13 @@
         <v>96.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.9</v>
+        <v>-1.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>11</v>
@@ -3668,7 +3735,7 @@
         <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
         <v>6</v>
@@ -3689,7 +3756,7 @@
         <v>28</v>
       </c>
       <c r="AO18" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AP18" t="n">
         <v>26</v>
@@ -3698,22 +3765,22 @@
         <v>16</v>
       </c>
       <c r="AR18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS18" t="n">
         <v>14</v>
       </c>
       <c r="AT18" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AU18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV18" t="n">
         <v>5</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AX18" t="n">
         <v>1</v>
@@ -3722,16 +3789,16 @@
         <v>3</v>
       </c>
       <c r="AZ18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -3838,16 +3905,16 @@
         <v>1.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
         <v>11</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
         <v>28</v>
@@ -3886,10 +3953,10 @@
         <v>6</v>
       </c>
       <c r="AT19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV19" t="n">
         <v>24</v>
@@ -3898,7 +3965,7 @@
         <v>16</v>
       </c>
       <c r="AX19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
@@ -4044,16 +4111,16 @@
         <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN20" t="n">
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>0.75</v>
+        <v>0.737</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4142,10 +4209,10 @@
         <v>37.3</v>
       </c>
       <c r="J21" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L21" t="n">
         <v>11.9</v>
@@ -4157,52 +4224,52 @@
         <v>0.405</v>
       </c>
       <c r="O21" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="P21" t="n">
-        <v>21.4</v>
+        <v>20.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.764</v>
+        <v>0.77</v>
       </c>
       <c r="R21" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S21" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="T21" t="n">
         <v>39.9</v>
       </c>
       <c r="U21" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V21" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="W21" t="n">
         <v>9.1</v>
       </c>
       <c r="X21" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>102.8</v>
+        <v>102.3</v>
       </c>
       <c r="AC21" t="n">
         <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
         <v>3</v>
@@ -4214,16 +4281,16 @@
         <v>4</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK21" t="n">
         <v>10</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>12</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4235,19 +4302,19 @@
         <v>3</v>
       </c>
       <c r="AO21" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT21" t="n">
         <v>27</v>
@@ -4271,13 +4338,13 @@
         <v>3</v>
       </c>
       <c r="BA21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -4306,97 +4373,97 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
       </c>
       <c r="I22" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J22" t="n">
         <v>76.59999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.491</v>
+        <v>0.492</v>
       </c>
       <c r="L22" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M22" t="n">
         <v>18.3</v>
       </c>
       <c r="N22" t="n">
-        <v>0.418</v>
+        <v>0.426</v>
       </c>
       <c r="O22" t="n">
         <v>23.1</v>
       </c>
       <c r="P22" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.836</v>
+        <v>0.837</v>
       </c>
       <c r="R22" t="n">
         <v>9.6</v>
       </c>
       <c r="S22" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T22" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U22" t="n">
-        <v>22.3</v>
+        <v>22.6</v>
       </c>
       <c r="V22" t="n">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="W22" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="X22" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Y22" t="n">
         <v>3.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>106</v>
+        <v>106.2</v>
       </c>
       <c r="AC22" t="n">
         <v>9.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4408,13 +4475,13 @@
         <v>2</v>
       </c>
       <c r="AL22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM22" t="n">
         <v>22</v>
       </c>
       <c r="AN22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4429,16 +4496,16 @@
         <v>26</v>
       </c>
       <c r="AS22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU22" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW22" t="n">
         <v>22</v>
@@ -4450,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="AZ22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA22" t="n">
         <v>4</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
         <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4</v>
+        <v>0.368</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J23" t="n">
-        <v>83.09999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.442</v>
+        <v>0.438</v>
       </c>
       <c r="L23" t="n">
         <v>5.2</v>
@@ -4524,70 +4591,70 @@
         <v>13.5</v>
       </c>
       <c r="P23" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.78</v>
+        <v>0.783</v>
       </c>
       <c r="R23" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S23" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T23" t="n">
         <v>43.2</v>
       </c>
       <c r="U23" t="n">
-        <v>22.4</v>
+        <v>21.9</v>
       </c>
       <c r="V23" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W23" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X23" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AA23" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="AB23" t="n">
-        <v>92.2</v>
+        <v>91.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-3.4</v>
+        <v>-4</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF23" t="n">
         <v>21</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AG23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK23" t="n">
         <v>20</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>18</v>
       </c>
       <c r="AL23" t="n">
         <v>28</v>
@@ -4605,7 +4672,7 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
@@ -4617,22 +4684,22 @@
         <v>9</v>
       </c>
       <c r="AU23" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY23" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>-2.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF24" t="n">
         <v>11</v>
@@ -4769,7 +4836,7 @@
         <v>9</v>
       </c>
       <c r="AK24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL24" t="n">
         <v>19</v>
@@ -4793,7 +4860,7 @@
         <v>19</v>
       </c>
       <c r="AS24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT24" t="n">
         <v>19</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -4852,97 +4919,97 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.318</v>
+        <v>0.333</v>
       </c>
       <c r="H25" t="n">
         <v>48.7</v>
       </c>
       <c r="I25" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J25" t="n">
-        <v>85.09999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L25" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M25" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.342</v>
+        <v>0.347</v>
       </c>
       <c r="O25" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P25" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R25" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="S25" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="T25" t="n">
-        <v>40.1</v>
+        <v>40.7</v>
       </c>
       <c r="U25" t="n">
         <v>21.4</v>
       </c>
       <c r="V25" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W25" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="X25" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Y25" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>97.8</v>
+        <v>98.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>-5.3</v>
+        <v>-5.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG25" t="n">
         <v>25</v>
       </c>
       <c r="AH25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI25" t="n">
         <v>5</v>
@@ -4951,7 +5018,7 @@
         <v>3</v>
       </c>
       <c r="AK25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
         <v>21</v>
@@ -4960,25 +5027,25 @@
         <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AO25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP25" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
         <v>19</v>
       </c>
       <c r="AR25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS25" t="n">
         <v>28</v>
       </c>
       <c r="AT25" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AU25" t="n">
         <v>17</v>
@@ -4987,13 +5054,13 @@
         <v>7</v>
       </c>
       <c r="AW25" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AX25" t="n">
         <v>9</v>
       </c>
       <c r="AY25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ25" t="n">
         <v>23</v>
@@ -5002,7 +5069,7 @@
         <v>21</v>
       </c>
       <c r="BB25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC25" t="n">
         <v>25</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -5112,13 +5179,13 @@
         <v>-4.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>21</v>
       </c>
       <c r="AF26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
         <v>21</v>
@@ -5127,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ26" t="n">
         <v>16</v>
@@ -5139,7 +5206,7 @@
         <v>6</v>
       </c>
       <c r="AM26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN26" t="n">
         <v>13</v>
@@ -5175,13 +5242,13 @@
         <v>19</v>
       </c>
       <c r="AY26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ26" t="n">
         <v>17</v>
       </c>
       <c r="BA26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH27" t="n">
         <v>12</v>
@@ -5327,10 +5394,10 @@
         <v>20</v>
       </c>
       <c r="AO27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ27" t="n">
         <v>18</v>
@@ -5357,7 +5424,7 @@
         <v>25</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ27" t="n">
         <v>26</v>
@@ -5369,7 +5436,7 @@
         <v>21</v>
       </c>
       <c r="BC27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5512,7 +5579,7 @@
         <v>20</v>
       </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
         <v>6</v>
@@ -5521,7 +5588,7 @@
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT28" t="n">
         <v>11</v>
@@ -5533,13 +5600,13 @@
         <v>18</v>
       </c>
       <c r="AW28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX28" t="n">
         <v>19</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -5580,55 +5647,55 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H29" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="I29" t="n">
-        <v>35.6</v>
+        <v>35.9</v>
       </c>
       <c r="J29" t="n">
-        <v>83.8</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.425</v>
+        <v>0.426</v>
       </c>
       <c r="L29" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M29" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="N29" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O29" t="n">
-        <v>18.1</v>
+        <v>18.4</v>
       </c>
       <c r="P29" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.78</v>
+        <v>0.781</v>
       </c>
       <c r="R29" t="n">
         <v>11</v>
       </c>
       <c r="S29" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T29" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U29" t="n">
         <v>20.7</v>
@@ -5637,28 +5704,28 @@
         <v>13.5</v>
       </c>
       <c r="W29" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="X29" t="n">
         <v>5.1</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>96.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>-7</v>
+        <v>-6.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>28</v>
@@ -5670,40 +5737,40 @@
         <v>28</v>
       </c>
       <c r="AH29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
         <v>6</v>
       </c>
       <c r="AK29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO29" t="n">
         <v>9</v>
       </c>
       <c r="AP29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT29" t="n">
         <v>23</v>
@@ -5715,7 +5782,7 @@
         <v>3</v>
       </c>
       <c r="AW29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AX29" t="n">
         <v>18</v>
@@ -5727,10 +5794,10 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BC29" t="n">
         <v>28</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" t="n">
         <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>0.545</v>
+        <v>0.524</v>
       </c>
       <c r="H30" t="n">
         <v>48.7</v>
       </c>
       <c r="I30" t="n">
-        <v>37.5</v>
+        <v>37.2</v>
       </c>
       <c r="J30" t="n">
         <v>83.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.451</v>
+        <v>0.446</v>
       </c>
       <c r="L30" t="n">
         <v>6.9</v>
@@ -5792,31 +5859,31 @@
         <v>18.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.374</v>
+        <v>0.376</v>
       </c>
       <c r="O30" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P30" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="Q30" t="n">
         <v>0.767</v>
       </c>
       <c r="R30" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="S30" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="T30" t="n">
-        <v>43.7</v>
+        <v>43.9</v>
       </c>
       <c r="U30" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V30" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W30" t="n">
         <v>8.199999999999999</v>
@@ -5825,7 +5892,7 @@
         <v>7</v>
       </c>
       <c r="Y30" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z30" t="n">
         <v>22.3</v>
@@ -5834,16 +5901,16 @@
         <v>21</v>
       </c>
       <c r="AB30" t="n">
-        <v>101.3</v>
+        <v>100.5</v>
       </c>
       <c r="AC30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD30" t="n">
         <v>2</v>
       </c>
-      <c r="AD30" t="n">
-        <v>1</v>
-      </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
         <v>15</v>
@@ -5852,58 +5919,58 @@
         <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI30" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AJ30" t="n">
         <v>11</v>
       </c>
       <c r="AK30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO30" t="n">
         <v>5</v>
       </c>
       <c r="AP30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR30" t="n">
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT30" t="n">
         <v>8</v>
       </c>
       <c r="AU30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW30" t="n">
         <v>13</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>12</v>
       </c>
       <c r="AX30" t="n">
         <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
@@ -6028,7 +6095,7 @@
         <v>30</v>
       </c>
       <c r="AF31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
         <v>30</v>
@@ -6055,13 +6122,13 @@
         <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP31" t="n">
         <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
         <v>12</v>
@@ -6073,7 +6140,7 @@
         <v>14</v>
       </c>
       <c r="AU31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-9-2012-13</t>
+          <t>2012-12-09</t>
         </is>
       </c>
     </row>
